--- a/trial_company_domains_and_hr_profiles.xlsx
+++ b/trial_company_domains_and_hr_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,300 +446,325 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn HR Profile 1</t>
+          <t>Occupation</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn HR Profile 2</t>
+          <t>LinkedIn Profile 1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn HR Profile 3</t>
+          <t>LinkedIn Profile 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn HR Profile 4</t>
+          <t>LinkedIn Profile 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn HR Profile 5</t>
+          <t>LinkedIn Profile 4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn HR Profile 6</t>
+          <t>LinkedIn Profile 5</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn HR Profile 7</t>
+          <t>LinkedIn Profile 6</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn HR Profile 8</t>
+          <t>LinkedIn Profile 7</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn HR Profile 9</t>
+          <t>LinkedIn Profile 8</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn HR Profile 10</t>
+          <t>LinkedIn Profile 9</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>LinkedIn Profile 10</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>zynga</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zynga.com</t>
+          <t>bharatpetroleum.in</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/vinita-gupta-394492ab</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/bhavnatalwar</t>
+          <t>https://in.linkedin.com/in/ritu-mathur-9b9abb21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/priya-raphel-793b143</t>
+          <t>https://in.linkedin.com/in/mahendra-kumar-k-72bb3a21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/swati-singh-7403122a</t>
+          <t>https://in.linkedin.com/in/harshita-jain-843a43136</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/david-chacko-0901377</t>
+          <t>https://in.linkedin.com/in/dr-mohan-seetharaman-78690925</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/rakshitha-b-a-520a9765</t>
+          <t>https://in.linkedin.com/in/khyatimajithia</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/prakriti-agarwal-454516146</t>
+          <t>https://in.linkedin.com/in/kurian-parambi-a12a20246</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/upasana-mahapatra-5a7387167</t>
+          <t>https://in.linkedin.com/in/praveen-anaswara-b878712b</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/sunithayedikeri</t>
+          <t>https://in.linkedin.com/in/ronak-johari-a3ab3275</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/deeptilewis</t>
+          <t>https://in.linkedin.com/in/yugesh-sureka-9a355718</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/damodar-khobragade-4289b627</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>inmobi</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>inmobi.com</t>
+          <t>bharatpetroleum.in</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/priyankkakjain</t>
+          <t>HSE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/archana-sarowa-46570011</t>
+          <t>https://in.linkedin.com/in/sanjeev-raina-38461628a</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/girish-m-64178978</t>
+          <t>https://in.linkedin.com/in/ramachandran-mk-55a59426</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/shivanandini-n-prakash-a9b26124</t>
+          <t>https://in.linkedin.com/in/pv-rajesh-3a831a113</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/shefalirai</t>
+          <t>https://in.linkedin.com/in/basil-sunny-b2348b169</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/snehabathwal</t>
+          <t>https://in.linkedin.com/in/sethu-nandan-6a037935</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/chavisengar</t>
+          <t>https://in.linkedin.com/in/mohammed-fasil-987530b4</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/snnysmn120387</t>
+          <t>https://in.linkedin.com/in/lijin-vijayan-k-m-8a5153170</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/avinash-manoharan-sap</t>
+          <t>https://in.linkedin.com/in/satyakam-barsainyan-308b4592</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/heena-shirol</t>
+          <t>https://in.linkedin.com/in/h-firooz-2857069b</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/manish-dabhade-a678a718b</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>smart joules</t>
+          <t>Vedanta</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>smartjoules.co.in</t>
+          <t>vedantalimited.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/anjali-singh-827a95149?trk=public_profile_browsemap_profile-result-card_result-card_full-click</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/garima-arora</t>
+          <t>https://in.linkedin.com/in/dilip-sinha-766364a</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/parul-g-43a7a966?trk=public_profile_samename_profile_profile-result-card_result-card_full-click</t>
+          <t>https://in.linkedin.com/in/praveenpurohit</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/aishwarya-ramchandran-30763544</t>
+          <t>https://in.linkedin.com/in/kriti-singh-4091a4178</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/ameyaayachit</t>
+          <t>https://in.linkedin.com/in/sushanta-kumar-panigrahi-5aa39324</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/rajni-yadav-99083b140</t>
+          <t>https://in.linkedin.com/in/sudhanshu-shekhar-85793823</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/anjaliyadav14</t>
+          <t>https://in.linkedin.com/in/yukti-v-3675a26b?trk=public_profile_browsemap</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/dikshit-nainwal-9b2189247</t>
+          <t>https://in.linkedin.com/in/sanjay-singh-sanjay-vedantahrconsulting-com-b0438868</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/ujjal-majumdar-36395616b</t>
+          <t>https://in.linkedin.com/in/suniti-kumar-dhal-74b3b588</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/selva-kumar-098b881b3</t>
+          <t>https://in.linkedin.com/in/praveen-george-998a997</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/beulah-juvvanapudi-57150012</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>Vedanta</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>target.com</t>
+          <t>vedantalimited.com</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/parulthakur</t>
+          <t>HSE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/gaurav-shetty-4284a7166</t>
+          <t>https://in.linkedin.com/in/harshvardhan-govind-pande</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/arpitha4</t>
+          <t>https://in.linkedin.com/in/rajinder-singh-ahuja-83aa5013</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/cheryldoss1</t>
+          <t>https://in.linkedin.com/in/mahesh-mahajan-6b992948</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/arunkulkarni1</t>
+          <t>https://in.linkedin.com/in/vivek-kumar-3050b91a</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/sunil-chhabria-07130bb4</t>
+          <t>https://in.linkedin.com/in/krutisunder-mohapatra-a16176167</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/sundar-b-h-b50066a</t>
+          <t>https://in.linkedin.com/in/dileep-raut-789421240</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/chetan-c-027b4b179</t>
+          <t>https://in.linkedin.com/in/niraj-kumar-singh-59b07923</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/rubeen-sakeena-a1852119b</t>
+          <t>https://in.linkedin.com/in/debasish-mohapatra-8281b187</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/minakshi-mishra-598781a</t>
+          <t>https://in.linkedin.com/in/mohammadbiswas</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/saurabh-singh-kanwar</t>
         </is>
       </c>
     </row>
